--- a/Ingredient_Matrix.xlsx
+++ b/Ingredient_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdasilva/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCCB041-6446-D84A-810B-006BF09657DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A88346B-5CA9-A54F-8A1F-7CAAF5C55AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="500" windowWidth="27640" windowHeight="15960" xr2:uid="{D33EB914-B01A-C540-8BC4-E46DAEAD7A3F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>happy</t>
   </si>
@@ -104,9 +104,6 @@
     <t>camembert cheese</t>
   </si>
   <si>
-    <t>capers</t>
-  </si>
-  <si>
     <t>cardamom</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
   </si>
   <si>
     <t>corn</t>
-  </si>
-  <si>
-    <t>cottage cheese</t>
   </si>
   <si>
     <t>cranberry</t>
@@ -750,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4FDCBC-D219-0543-B5AD-79DED698C7F9}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,22 +1128,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>1.7241379310344827E-3</v>
+        <v>2.5862068965517241E-3</v>
       </c>
       <c r="C17">
-        <v>9.9108027750247768E-3</v>
+        <v>6.9375619425173438E-3</v>
       </c>
       <c r="D17">
-        <v>2.070393374741201E-3</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="E17">
-        <v>1.8709073900841909E-3</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F17">
-        <v>1.8181818181818182E-3</v>
+        <v>5.454545454545455E-3</v>
       </c>
       <c r="G17">
-        <v>1.8264840182648401E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,22 +1151,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>2.5862068965517241E-3</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C18">
-        <v>6.9375619425173438E-3</v>
+        <v>7.9286422200198214E-3</v>
       </c>
       <c r="D18">
-        <v>7.246376811594203E-3</v>
+        <v>1.6563146997929608E-2</v>
       </c>
       <c r="E18">
-        <v>5.6127221702525721E-3</v>
+        <v>1.028999064546305E-2</v>
       </c>
       <c r="F18">
-        <v>5.454545454545455E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G18">
-        <v>3.6529680365296802E-3</v>
+        <v>5.4794520547945206E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,22 +1174,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>1.0344827586206896E-2</v>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="C19">
-        <v>7.9286422200198214E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D19">
-        <v>1.6563146997929608E-2</v>
+        <v>1.8633540372670808E-2</v>
       </c>
       <c r="E19">
         <v>1.028999064546305E-2</v>
       </c>
       <c r="F19">
-        <v>9.0909090909090905E-3</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G19">
-        <v>5.4794520547945206E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1203,22 +1197,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>3.4482758620689655E-3</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C20">
-        <v>1.9821605550049554E-3</v>
+        <v>1.1892963330029732E-2</v>
       </c>
       <c r="D20">
-        <v>1.8633540372670808E-2</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E20">
-        <v>1.028999064546305E-2</v>
+        <v>9.3545369504209538E-3</v>
       </c>
       <c r="F20">
-        <v>1.8181818181818182E-3</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G20">
-        <v>3.6529680365296802E-3</v>
+        <v>1.643835616438356E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1226,22 +1220,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>7.7586206896551723E-3</v>
+        <v>1.2931034482758621E-2</v>
       </c>
       <c r="C21">
-        <v>1.1892963330029732E-2</v>
+        <v>1.4866204162537165E-2</v>
       </c>
       <c r="D21">
-        <v>4.140786749482402E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E21">
-        <v>9.3545369504209538E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F21">
-        <v>1.6363636363636365E-2</v>
+        <v>1.2727272727272728E-2</v>
       </c>
       <c r="G21">
-        <v>1.643835616438356E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1249,22 +1243,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>1.2931034482758621E-2</v>
+        <v>6.8965517241379309E-3</v>
       </c>
       <c r="C22">
-        <v>1.4866204162537165E-2</v>
+        <v>1.0901883052527254E-2</v>
       </c>
       <c r="D22">
-        <v>1.2422360248447204E-2</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E22">
         <v>1.3096351730589336E-2</v>
       </c>
       <c r="F22">
-        <v>1.2727272727272728E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G22">
-        <v>7.3059360730593605E-3</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,22 +1266,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>6.8965517241379309E-3</v>
+        <v>9.482758620689655E-3</v>
       </c>
       <c r="C23">
-        <v>1.0901883052527254E-2</v>
+        <v>1.3875123885034688E-2</v>
       </c>
       <c r="D23">
-        <v>9.316770186335404E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E23">
-        <v>1.3096351730589336E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F23">
-        <v>1.090909090909091E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G23">
-        <v>1.1872146118721462E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1295,22 +1289,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>9.482758620689655E-3</v>
+        <v>1.6379310344827588E-2</v>
       </c>
       <c r="C24">
-        <v>1.3875123885034688E-2</v>
+        <v>1.7839444995044598E-2</v>
       </c>
       <c r="D24">
-        <v>4.140786749482402E-3</v>
+        <v>1.6563146997929608E-2</v>
       </c>
       <c r="E24">
-        <v>3.7418147801683817E-3</v>
+        <v>1.6838166510757719E-2</v>
       </c>
       <c r="F24">
-        <v>3.6363636363636364E-3</v>
+        <v>1.5454545454545455E-2</v>
       </c>
       <c r="G24">
-        <v>3.6529680365296802E-3</v>
+        <v>1.5525114155251141E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1318,19 +1312,19 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1.6379310344827588E-2</v>
+        <v>1.2931034482758621E-2</v>
       </c>
       <c r="C25">
-        <v>1.7839444995044598E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D25">
-        <v>1.6563146997929608E-2</v>
+        <v>1.8633540372670808E-2</v>
       </c>
       <c r="E25">
-        <v>1.6838166510757719E-2</v>
+        <v>1.4967259120673527E-2</v>
       </c>
       <c r="F25">
-        <v>1.5454545454545455E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G25">
         <v>1.5525114155251141E-2</v>
@@ -1341,22 +1335,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>1.2931034482758621E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C26">
-        <v>3.9643211100099107E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D26">
-        <v>1.8633540372670808E-2</v>
+        <v>1.0351966873706004E-2</v>
       </c>
       <c r="E26">
-        <v>1.4967259120673527E-2</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F26">
-        <v>3.6363636363636364E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G26">
-        <v>1.5525114155251141E-2</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1364,7 +1358,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>1.2068965517241379E-2</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C27">
         <v>5.9464816650148661E-3</v>
@@ -1376,10 +1370,10 @@
         <v>1.1225444340505144E-2</v>
       </c>
       <c r="F27">
-        <v>9.0909090909090905E-3</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="G27">
-        <v>1.1872146118721462E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1387,22 +1381,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>8.6206896551724137E-3</v>
+        <v>5.1724137931034482E-3</v>
       </c>
       <c r="C28">
         <v>5.9464816650148661E-3</v>
       </c>
       <c r="D28">
-        <v>1.0351966873706004E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E28">
-        <v>1.1225444340505144E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F28">
-        <v>1.3636363636363636E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G28">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1410,22 +1404,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>5.1724137931034482E-3</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="C29">
-        <v>5.9464816650148661E-3</v>
+        <v>1.7839444995044598E-2</v>
       </c>
       <c r="D29">
-        <v>1.4492753623188406E-2</v>
+        <v>1.6563146997929608E-2</v>
       </c>
       <c r="E29">
-        <v>3.7418147801683817E-3</v>
+        <v>1.6838166510757719E-2</v>
       </c>
       <c r="F29">
-        <v>3.6363636363636364E-3</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G29">
-        <v>3.6529680365296802E-3</v>
+        <v>1.2785388127853882E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1436,16 +1430,16 @@
         <v>1.3793103448275862E-2</v>
       </c>
       <c r="C30">
-        <v>1.7839444995044598E-2</v>
+        <v>4.9554013875123884E-3</v>
       </c>
       <c r="D30">
-        <v>1.6563146997929608E-2</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E30">
-        <v>1.6838166510757719E-2</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F30">
-        <v>1.090909090909091E-2</v>
+        <v>1.5454545454545455E-2</v>
       </c>
       <c r="G30">
         <v>1.2785388127853882E-2</v>
@@ -1456,22 +1450,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>1.3793103448275862E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C31">
-        <v>4.9554013875123884E-3</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D31">
-        <v>4.140786749482402E-3</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E31">
-        <v>1.1225444340505144E-2</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F31">
-        <v>1.5454545454545455E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="G31">
-        <v>1.2785388127853882E-2</v>
+        <v>1.643835616438356E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1479,22 +1473,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>1.0344827586206896E-2</v>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="C32">
         <v>3.9643211100099107E-3</v>
       </c>
       <c r="D32">
-        <v>1.4492753623188406E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E32">
-        <v>1.3096351730589336E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F32">
-        <v>1.3636363636363636E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G32">
-        <v>1.643835616438356E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1502,19 +1496,19 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>3.4482758620689655E-3</v>
+        <v>2.5862068965517241E-3</v>
       </c>
       <c r="C33">
-        <v>3.9643211100099107E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D33">
-        <v>6.2111801242236021E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E33">
-        <v>3.7418147801683817E-3</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F33">
-        <v>3.6363636363636364E-3</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G33">
         <v>3.6529680365296802E-3</v>
@@ -1525,22 +1519,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>2.5862068965517241E-3</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C34">
-        <v>1.9821605550049554E-3</v>
+        <v>1.1892963330029732E-2</v>
       </c>
       <c r="D34">
-        <v>2.070393374741201E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E34">
-        <v>1.8709073900841909E-3</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F34">
-        <v>1.8181818181818182E-3</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G34">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0045662100456621E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1548,7 +1542,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>1.7241379310344827E-3</v>
+        <v>4.3103448275862068E-3</v>
       </c>
       <c r="C35">
         <v>1.9821605550049554E-3</v>
@@ -1557,10 +1551,10 @@
         <v>2.070393374741201E-3</v>
       </c>
       <c r="E35">
-        <v>3.7418147801683817E-3</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F35">
-        <v>1.8181818181818182E-3</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G35">
         <v>1.8264840182648401E-3</v>
@@ -1571,22 +1565,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>1.2068965517241379E-2</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C36">
-        <v>1.1892963330029732E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D36">
-        <v>1.2422360248447204E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E36">
-        <v>1.1225444340505144E-2</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F36">
-        <v>1.090909090909091E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G36">
-        <v>1.0045662100456621E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1597,19 +1591,19 @@
         <v>4.3103448275862068E-3</v>
       </c>
       <c r="C37">
-        <v>1.9821605550049554E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D37">
-        <v>2.070393374741201E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E37">
-        <v>1.8709073900841909E-3</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F37">
-        <v>3.6363636363636364E-3</v>
+        <v>5.454545454545455E-3</v>
       </c>
       <c r="G37">
-        <v>1.8264840182648401E-3</v>
+        <v>5.4794520547945206E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1617,13 +1611,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>7.7586206896551723E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C38">
-        <v>3.9643211100099107E-3</v>
+        <v>1.7839444995044598E-2</v>
       </c>
       <c r="D38">
-        <v>6.2111801242236021E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E38">
         <v>7.4836295603367634E-3</v>
@@ -1632,7 +1626,7 @@
         <v>9.0909090909090905E-3</v>
       </c>
       <c r="G38">
-        <v>7.3059360730593605E-3</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1640,22 +1634,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>4.3103448275862068E-3</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C39">
-        <v>5.9464816650148661E-3</v>
+        <v>1.5857284440039643E-2</v>
       </c>
       <c r="D39">
-        <v>1.2422360248447204E-2</v>
+        <v>8.2815734989648039E-3</v>
       </c>
       <c r="E39">
         <v>3.7418147801683817E-3</v>
       </c>
       <c r="F39">
-        <v>5.454545454545455E-3</v>
+        <v>1.4545454545454545E-2</v>
       </c>
       <c r="G39">
-        <v>5.4794520547945206E-3</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1663,22 +1657,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>8.6206896551724137E-3</v>
+        <v>6.8965517241379309E-3</v>
       </c>
       <c r="C40">
-        <v>1.7839444995044598E-2</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D40">
-        <v>4.140786749482402E-3</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E40">
-        <v>7.4836295603367634E-3</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F40">
-        <v>9.0909090909090905E-3</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G40">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1686,22 +1680,22 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>7.7586206896551723E-3</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C41">
-        <v>1.5857284440039643E-2</v>
+        <v>1.0901883052527254E-2</v>
       </c>
       <c r="D41">
-        <v>8.2815734989648039E-3</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E41">
-        <v>3.7418147801683817E-3</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F41">
-        <v>1.4545454545454545E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G41">
-        <v>1.1872146118721462E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1709,22 +1703,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>6.8965517241379309E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C42">
-        <v>1.9821605550049554E-3</v>
+        <v>1.1892963330029732E-2</v>
       </c>
       <c r="D42">
-        <v>9.316770186335404E-3</v>
+        <v>8.2815734989648039E-3</v>
       </c>
       <c r="E42">
-        <v>5.6127221702525721E-3</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F42">
         <v>3.6363636363636364E-3</v>
       </c>
       <c r="G42">
-        <v>3.6529680365296802E-3</v>
+        <v>5.4794520547945206E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1732,22 +1726,22 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>6.0344827586206896E-3</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C43">
-        <v>1.0901883052527254E-2</v>
+        <v>1.7839444995044598E-2</v>
       </c>
       <c r="D43">
         <v>6.2111801242236021E-3</v>
       </c>
       <c r="E43">
-        <v>7.4836295603367634E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F43">
-        <v>1.090909090909091E-2</v>
+        <v>1.1818181818181818E-2</v>
       </c>
       <c r="G43">
-        <v>1.0958904109589041E-2</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1755,22 +1749,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>8.6206896551724137E-3</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C44">
-        <v>1.1892963330029732E-2</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D44">
-        <v>8.2815734989648039E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E44">
-        <v>3.7418147801683817E-3</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F44">
-        <v>3.6363636363636364E-3</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G44">
-        <v>5.4794520547945206E-3</v>
+        <v>1.8264840182648401E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1778,22 +1772,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>1.2068965517241379E-2</v>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="C45">
-        <v>1.7839444995044598E-2</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D45">
-        <v>6.2111801242236021E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E45">
-        <v>1.3096351730589336E-2</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F45">
-        <v>1.1818181818181818E-2</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G45">
-        <v>1.1872146118721462E-2</v>
+        <v>1.8264840182648401E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1801,22 +1795,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>6.0344827586206896E-3</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C46">
-        <v>1.9821605550049554E-3</v>
+        <v>1.6848364717542121E-2</v>
       </c>
       <c r="D46">
-        <v>2.070393374741201E-3</v>
+        <v>1.6563146997929608E-2</v>
       </c>
       <c r="E46">
-        <v>1.8709073900841909E-3</v>
+        <v>1.4031805425631431E-2</v>
       </c>
       <c r="F46">
-        <v>7.2727272727272727E-3</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="G46">
-        <v>1.8264840182648401E-3</v>
+        <v>1.643835616438356E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1824,10 +1818,10 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>3.4482758620689655E-3</v>
+        <v>1.7241379310344827E-3</v>
       </c>
       <c r="C47">
-        <v>1.9821605550049554E-3</v>
+        <v>2.973240832507433E-3</v>
       </c>
       <c r="D47">
         <v>2.070393374741201E-3</v>
@@ -1839,7 +1833,7 @@
         <v>1.8181818181818182E-3</v>
       </c>
       <c r="G47">
-        <v>1.8264840182648401E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,22 +1841,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C48">
-        <v>1.6848364717542121E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D48">
-        <v>1.6563146997929608E-2</v>
+        <v>8.2815734989648039E-3</v>
       </c>
       <c r="E48">
-        <v>1.4031805425631431E-2</v>
+        <v>1.028999064546305E-2</v>
       </c>
       <c r="F48">
-        <v>1.3636363636363636E-2</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G48">
-        <v>1.643835616438356E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,22 +1864,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>1.7241379310344827E-3</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C49">
-        <v>2.973240832507433E-3</v>
+        <v>9.9108027750247768E-3</v>
       </c>
       <c r="D49">
-        <v>2.070393374741201E-3</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E49">
-        <v>1.8709073900841909E-3</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F49">
-        <v>1.8181818181818182E-3</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G49">
-        <v>3.6529680365296802E-3</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,22 +1887,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>1.0344827586206896E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C50">
-        <v>3.9643211100099107E-3</v>
+        <v>9.9108027750247768E-3</v>
       </c>
       <c r="D50">
-        <v>8.2815734989648039E-3</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E50">
-        <v>1.028999064546305E-2</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F50">
-        <v>7.2727272727272727E-3</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G50">
-        <v>1.0958904109589041E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1916,22 +1910,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>1.2068965517241379E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C51">
-        <v>9.9108027750247768E-3</v>
+        <v>7.9286422200198214E-3</v>
       </c>
       <c r="D51">
-        <v>1.4492753623188406E-2</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="E51">
-        <v>1.1225444340505144E-2</v>
+        <v>1.028999064546305E-2</v>
       </c>
       <c r="F51">
-        <v>3.6363636363636364E-3</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G51">
-        <v>7.3059360730593605E-3</v>
+        <v>1.3698630136986301E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,22 +1933,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>1.2068965517241379E-2</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C52">
-        <v>9.9108027750247768E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D52">
-        <v>1.4492753623188406E-2</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E52">
-        <v>1.1225444340505144E-2</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F52">
-        <v>3.6363636363636364E-3</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G52">
-        <v>7.3059360730593605E-3</v>
+        <v>1.8264840182648401E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1962,22 +1956,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>1.0344827586206896E-2</v>
+        <v>9.482758620689655E-3</v>
       </c>
       <c r="C53">
         <v>7.9286422200198214E-3</v>
       </c>
       <c r="D53">
-        <v>7.246376811594203E-3</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E53">
-        <v>1.028999064546305E-2</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F53">
-        <v>1.6363636363636365E-2</v>
+        <v>1.1818181818181818E-2</v>
       </c>
       <c r="G53">
-        <v>1.3698630136986301E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,22 +1979,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>7.7586206896551723E-3</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C54">
-        <v>1.9821605550049554E-3</v>
+        <v>6.9375619425173438E-3</v>
       </c>
       <c r="D54">
-        <v>2.070393374741201E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E54">
-        <v>1.8709073900841909E-3</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F54">
-        <v>1.8181818181818182E-3</v>
+        <v>1.4545454545454545E-2</v>
       </c>
       <c r="G54">
-        <v>1.8264840182648401E-3</v>
+        <v>1.2785388127853882E-2</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2008,22 +2002,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>9.482758620689655E-3</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C55">
-        <v>7.9286422200198214E-3</v>
+        <v>1.5857284440039643E-2</v>
       </c>
       <c r="D55">
-        <v>6.2111801242236021E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E55">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F55">
-        <v>1.1818181818181818E-2</v>
+        <v>1.4545454545454545E-2</v>
       </c>
       <c r="G55">
-        <v>7.3059360730593605E-3</v>
+        <v>1.4611872146118721E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2031,22 +2025,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>1.1206896551724138E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C56">
-        <v>6.9375619425173438E-3</v>
+        <v>7.9286422200198214E-3</v>
       </c>
       <c r="D56">
-        <v>1.2422360248447204E-2</v>
+        <v>1.0351966873706004E-2</v>
       </c>
       <c r="E56">
-        <v>7.4836295603367634E-3</v>
+        <v>1.216089803554724E-2</v>
       </c>
       <c r="F56">
         <v>1.4545454545454545E-2</v>
       </c>
       <c r="G56">
-        <v>1.2785388127853882E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2054,22 +2048,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>1.1206896551724138E-2</v>
+        <v>1.2931034482758621E-2</v>
       </c>
       <c r="C57">
-        <v>1.5857284440039643E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D57">
-        <v>4.140786749482402E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E57">
-        <v>3.7418147801683817E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F57">
-        <v>1.4545454545454545E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G57">
-        <v>1.4611872146118721E-2</v>
+        <v>9.1324200913242004E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2077,22 +2071,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>1.2068965517241379E-2</v>
+        <v>1.2931034482758621E-2</v>
       </c>
       <c r="C58">
-        <v>7.9286422200198214E-3</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D58">
-        <v>1.0351966873706004E-2</v>
+        <v>1.3457556935817806E-2</v>
       </c>
       <c r="E58">
-        <v>1.216089803554724E-2</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F58">
-        <v>1.4545454545454545E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G58">
-        <v>7.3059360730593605E-3</v>
+        <v>9.1324200913242004E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2106,7 +2100,7 @@
         <v>3.9643211100099107E-3</v>
       </c>
       <c r="D59">
-        <v>1.2422360248447204E-2</v>
+        <v>1.3457556935817806E-2</v>
       </c>
       <c r="E59">
         <v>1.3096351730589336E-2</v>
@@ -2123,22 +2117,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>1.2931034482758621E-2</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C60">
-        <v>3.9643211100099107E-3</v>
+        <v>1.7839444995044598E-2</v>
       </c>
       <c r="D60">
-        <v>1.3457556935817806E-2</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E60">
-        <v>1.3096351730589336E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F60">
         <v>1.090909090909091E-2</v>
       </c>
       <c r="G60">
-        <v>9.1324200913242004E-3</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2146,22 +2140,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>1.2931034482758621E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C61">
         <v>3.9643211100099107E-3</v>
       </c>
       <c r="D61">
-        <v>1.3457556935817806E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E61">
         <v>1.3096351730589336E-2</v>
       </c>
       <c r="F61">
-        <v>1.090909090909091E-2</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G61">
-        <v>9.1324200913242004E-3</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2169,22 +2163,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>8.6206896551724137E-3</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C62">
-        <v>1.7839444995044598E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D62">
-        <v>4.140786749482402E-3</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E62">
-        <v>3.7418147801683817E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F62">
-        <v>1.090909090909091E-2</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G62">
-        <v>1.1872146118721462E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2192,22 +2186,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>1.2068965517241379E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C63">
-        <v>3.9643211100099107E-3</v>
+        <v>1.4866204162537165E-2</v>
       </c>
       <c r="D63">
-        <v>1.4492753623188406E-2</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E63">
-        <v>1.3096351730589336E-2</v>
+        <v>1.4967259120673527E-2</v>
       </c>
       <c r="F63">
-        <v>7.2727272727272727E-3</v>
+        <v>1.2727272727272728E-2</v>
       </c>
       <c r="G63">
-        <v>7.3059360730593605E-3</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2215,22 +2209,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>1.2068965517241379E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="C64">
-        <v>3.9643211100099107E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D64">
-        <v>1.4492753623188406E-2</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E64">
-        <v>1.3096351730589336E-2</v>
+        <v>1.4967259120673527E-2</v>
       </c>
       <c r="F64">
-        <v>7.2727272727272727E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G64">
-        <v>7.3059360730593605E-3</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2238,10 +2232,10 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>1.0344827586206896E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="C65">
-        <v>1.4866204162537165E-2</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D65">
         <v>1.2422360248447204E-2</v>
@@ -2250,10 +2244,10 @@
         <v>1.4967259120673527E-2</v>
       </c>
       <c r="F65">
-        <v>1.2727272727272728E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G65">
-        <v>1.1872146118721462E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2264,19 +2258,19 @@
         <v>1.3793103448275862E-2</v>
       </c>
       <c r="C66">
-        <v>5.9464816650148661E-3</v>
+        <v>1.1892963330029732E-2</v>
       </c>
       <c r="D66">
-        <v>1.2422360248447204E-2</v>
+        <v>1.0351966873706004E-2</v>
       </c>
       <c r="E66">
-        <v>1.4967259120673527E-2</v>
+        <v>1.6838166510757719E-2</v>
       </c>
       <c r="F66">
-        <v>9.0909090909090905E-3</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G66">
-        <v>1.0958904109589041E-2</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,22 +2278,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>1.3793103448275862E-2</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C67">
-        <v>5.9464816650148661E-3</v>
+        <v>7.9286422200198214E-3</v>
       </c>
       <c r="D67">
-        <v>1.2422360248447204E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E67">
-        <v>1.4967259120673527E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F67">
-        <v>9.0909090909090905E-3</v>
+        <v>1.1818181818181818E-2</v>
       </c>
       <c r="G67">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,22 +2301,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>1.3793103448275862E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C68">
-        <v>1.1892963330029732E-2</v>
+        <v>1.288404360753221E-2</v>
       </c>
       <c r="D68">
-        <v>1.0351966873706004E-2</v>
+        <v>1.1387163561076604E-2</v>
       </c>
       <c r="E68">
-        <v>1.6838166510757719E-2</v>
+        <v>1.4031805425631431E-2</v>
       </c>
       <c r="F68">
-        <v>1.090909090909091E-2</v>
+        <v>1.1818181818181818E-2</v>
       </c>
       <c r="G68">
-        <v>1.1872146118721462E-2</v>
+        <v>1.4611872146118721E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2330,22 +2324,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>1.1206896551724138E-2</v>
+        <v>2.5862068965517241E-3</v>
       </c>
       <c r="C69">
-        <v>7.9286422200198214E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D69">
-        <v>6.2111801242236021E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E69">
-        <v>3.7418147801683817E-3</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F69">
-        <v>1.1818181818181818E-2</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G69">
-        <v>3.6529680365296802E-3</v>
+        <v>1.8264840182648401E-3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2353,22 +2347,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>1.2068965517241379E-2</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C70">
         <v>1.288404360753221E-2</v>
       </c>
       <c r="D70">
-        <v>1.1387163561076604E-2</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E70">
-        <v>1.4031805425631431E-2</v>
+        <v>1.028999064546305E-2</v>
       </c>
       <c r="F70">
-        <v>1.1818181818181818E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="G70">
-        <v>1.4611872146118721E-2</v>
+        <v>9.1324200913242004E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2376,22 +2370,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>2.5862068965517241E-3</v>
+        <v>5.1724137931034482E-3</v>
       </c>
       <c r="C71">
-        <v>1.9821605550049554E-3</v>
+        <v>1.4866204162537165E-2</v>
       </c>
       <c r="D71">
-        <v>2.070393374741201E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E71">
-        <v>5.6127221702525721E-3</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F71">
-        <v>1.8181818181818182E-3</v>
+        <v>1.2727272727272728E-2</v>
       </c>
       <c r="G71">
-        <v>1.8264840182648401E-3</v>
+        <v>1.5525114155251141E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2399,22 +2393,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>6.0344827586206896E-3</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C72">
-        <v>1.288404360753221E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D72">
-        <v>9.316770186335404E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E72">
-        <v>1.028999064546305E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F72">
         <v>1.3636363636363636E-2</v>
       </c>
       <c r="G72">
-        <v>9.1324200913242004E-3</v>
+        <v>1.0045662100456621E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2422,22 +2416,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>5.1724137931034482E-3</v>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="C73">
-        <v>1.4866204162537165E-2</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D73">
-        <v>4.140786749482402E-3</v>
+        <v>8.2815734989648039E-3</v>
       </c>
       <c r="E73">
-        <v>1.1225444340505144E-2</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F73">
-        <v>1.2727272727272728E-2</v>
+        <v>0.01</v>
       </c>
       <c r="G73">
-        <v>1.5525114155251141E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2445,10 +2439,10 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>1.0344827586206896E-2</v>
+        <v>5.1724137931034482E-3</v>
       </c>
       <c r="C74">
-        <v>3.9643211100099107E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D74">
         <v>4.140786749482402E-3</v>
@@ -2457,10 +2451,10 @@
         <v>3.7418147801683817E-3</v>
       </c>
       <c r="F74">
-        <v>1.3636363636363636E-2</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G74">
-        <v>1.0045662100456621E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2468,22 +2462,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>3.4482758620689655E-3</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="C75">
-        <v>1.9821605550049554E-3</v>
+        <v>6.9375619425173438E-3</v>
       </c>
       <c r="D75">
-        <v>8.2815734989648039E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E75">
         <v>7.4836295603367634E-3</v>
       </c>
       <c r="F75">
-        <v>0.01</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G75">
-        <v>3.6529680365296802E-3</v>
+        <v>8.21917808219178E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2491,22 +2485,22 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>5.1724137931034482E-3</v>
+        <v>2.5862068965517241E-3</v>
       </c>
       <c r="C76">
-        <v>1.9821605550049554E-3</v>
+        <v>7.9286422200198214E-3</v>
       </c>
       <c r="D76">
-        <v>4.140786749482402E-3</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="E76">
-        <v>3.7418147801683817E-3</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F76">
-        <v>1.8181818181818182E-3</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G76">
-        <v>3.6529680365296802E-3</v>
+        <v>1.3698630136986301E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2514,22 +2508,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>1.3793103448275862E-2</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C77">
-        <v>6.9375619425173438E-3</v>
+        <v>1.0901883052527254E-2</v>
       </c>
       <c r="D77">
-        <v>1.2422360248447204E-2</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E77">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F77">
-        <v>9.0909090909090905E-3</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G77">
-        <v>8.21917808219178E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2537,22 +2531,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>2.5862068965517241E-3</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C78">
-        <v>7.9286422200198214E-3</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D78">
-        <v>7.246376811594203E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E78">
-        <v>1.8709073900841909E-3</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F78">
-        <v>7.2727272727272727E-3</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G78">
-        <v>1.3698630136986301E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2560,19 +2554,19 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>6.0344827586206896E-3</v>
+        <v>6.8965517241379309E-3</v>
       </c>
       <c r="C79">
-        <v>1.0901883052527254E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D79">
-        <v>9.316770186335404E-3</v>
+        <v>3.105590062111801E-3</v>
       </c>
       <c r="E79">
         <v>3.7418147801683817E-3</v>
       </c>
       <c r="F79">
-        <v>7.2727272727272727E-3</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G79">
         <v>3.6529680365296802E-3</v>
@@ -2583,22 +2577,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>6.0344827586206896E-3</v>
+        <v>5.1724137931034482E-3</v>
       </c>
       <c r="C80">
-        <v>3.9643211100099107E-3</v>
+        <v>1.3875123885034688E-2</v>
       </c>
       <c r="D80">
-        <v>2.070393374741201E-3</v>
+        <v>7.246376811594203E-3</v>
       </c>
       <c r="E80">
-        <v>5.6127221702525721E-3</v>
+        <v>1.6838166510757719E-2</v>
       </c>
       <c r="F80">
-        <v>3.6363636363636364E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G80">
-        <v>3.6529680365296802E-3</v>
+        <v>9.1324200913242004E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2606,22 +2600,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>6.8965517241379309E-3</v>
+        <v>1.2931034482758621E-2</v>
       </c>
       <c r="C81">
-        <v>3.9643211100099107E-3</v>
+        <v>1.3875123885034688E-2</v>
       </c>
       <c r="D81">
-        <v>3.105590062111801E-3</v>
+        <v>8.2815734989648039E-3</v>
       </c>
       <c r="E81">
-        <v>3.7418147801683817E-3</v>
+        <v>1.216089803554724E-2</v>
       </c>
       <c r="F81">
-        <v>3.6363636363636364E-3</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G81">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0045662100456621E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,22 +2623,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>5.1724137931034482E-3</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C82">
-        <v>1.3875123885034688E-2</v>
+        <v>9.9108027750247768E-3</v>
       </c>
       <c r="D82">
-        <v>7.246376811594203E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E82">
-        <v>1.6838166510757719E-2</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F82">
-        <v>0.01</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G82">
-        <v>9.1324200913242004E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,22 +2646,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>1.2931034482758621E-2</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C83">
-        <v>1.3875123885034688E-2</v>
+        <v>1.5857284440039643E-2</v>
       </c>
       <c r="D83">
-        <v>8.2815734989648039E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E83">
-        <v>1.216089803554724E-2</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F83">
-        <v>1.090909090909091E-2</v>
+        <v>1.2727272727272728E-2</v>
       </c>
       <c r="G83">
-        <v>1.0045662100456621E-2</v>
+        <v>1.4611872146118721E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2675,22 +2669,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>1.0344827586206896E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C84">
-        <v>9.9108027750247768E-3</v>
+        <v>1.3875123885034688E-2</v>
       </c>
       <c r="D84">
-        <v>1.2422360248447204E-2</v>
+        <v>1.1387163561076604E-2</v>
       </c>
       <c r="E84">
-        <v>1.3096351730589336E-2</v>
+        <v>9.3545369504209538E-3</v>
       </c>
       <c r="F84">
-        <v>9.0909090909090905E-3</v>
+        <v>5.454545454545455E-3</v>
       </c>
       <c r="G84">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2698,19 +2692,19 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C85">
-        <v>1.5857284440039643E-2</v>
+        <v>1.3875123885034688E-2</v>
       </c>
       <c r="D85">
-        <v>4.140786749482402E-3</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E85">
-        <v>1.3096351730589336E-2</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F85">
-        <v>1.2727272727272728E-2</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G85">
         <v>1.4611872146118721E-2</v>
@@ -2721,22 +2715,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>1.2068965517241379E-2</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C86">
-        <v>1.3875123885034688E-2</v>
+        <v>6.9375619425173438E-3</v>
       </c>
       <c r="D86">
-        <v>1.1387163561076604E-2</v>
+        <v>1.4492753623188406E-2</v>
       </c>
       <c r="E86">
-        <v>9.3545369504209538E-3</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F86">
-        <v>5.454545454545455E-3</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G86">
-        <v>1.0958904109589041E-2</v>
+        <v>9.1324200913242004E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2744,22 +2738,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>1.0344827586206896E-2</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C87">
-        <v>1.3875123885034688E-2</v>
+        <v>1.1892963330029732E-2</v>
       </c>
       <c r="D87">
-        <v>9.316770186335404E-3</v>
+        <v>1.1387163561076604E-2</v>
       </c>
       <c r="E87">
-        <v>1.1225444340505144E-2</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F87">
-        <v>1.6363636363636365E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G87">
-        <v>1.4611872146118721E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2770,19 +2764,19 @@
         <v>1.1206896551724138E-2</v>
       </c>
       <c r="C88">
-        <v>6.9375619425173438E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D88">
-        <v>1.4492753623188406E-2</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E88">
         <v>1.1225444340505144E-2</v>
       </c>
       <c r="F88">
-        <v>7.2727272727272727E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G88">
-        <v>9.1324200913242004E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,22 +2784,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>8.6206896551724137E-3</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C89">
-        <v>1.1892963330029732E-2</v>
+        <v>6.9375619425173438E-3</v>
       </c>
       <c r="D89">
-        <v>1.1387163561076604E-2</v>
+        <v>5.175983436853002E-3</v>
       </c>
       <c r="E89">
         <v>7.4836295603367634E-3</v>
       </c>
       <c r="F89">
-        <v>9.0909090909090905E-3</v>
+        <v>1.1818181818181818E-2</v>
       </c>
       <c r="G89">
-        <v>1.0958904109589041E-2</v>
+        <v>1.0045662100456621E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2813,22 +2807,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C90">
-        <v>5.9464816650148661E-3</v>
+        <v>1.5857284440039643E-2</v>
       </c>
       <c r="D90">
-        <v>1.2422360248447204E-2</v>
+        <v>1.1387163561076604E-2</v>
       </c>
       <c r="E90">
         <v>1.1225444340505144E-2</v>
       </c>
       <c r="F90">
-        <v>9.0909090909090905E-3</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G90">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2836,22 +2830,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>6.0344827586206896E-3</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C91">
-        <v>6.9375619425173438E-3</v>
+        <v>1.4866204162537165E-2</v>
       </c>
       <c r="D91">
-        <v>5.175983436853002E-3</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E91">
-        <v>7.4836295603367634E-3</v>
+        <v>1.4031805425631431E-2</v>
       </c>
       <c r="F91">
         <v>1.1818181818181818E-2</v>
       </c>
       <c r="G91">
-        <v>1.0045662100456621E-2</v>
+        <v>8.21917808219178E-3</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2859,22 +2853,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>1.0344827586206896E-2</v>
+        <v>4.3103448275862068E-3</v>
       </c>
       <c r="C92">
-        <v>1.5857284440039643E-2</v>
+        <v>1.0901883052527254E-2</v>
       </c>
       <c r="D92">
-        <v>1.1387163561076604E-2</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E92">
-        <v>1.1225444340505144E-2</v>
+        <v>1.216089803554724E-2</v>
       </c>
       <c r="F92">
-        <v>1.6363636363636365E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G92">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2882,22 +2876,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>1.1206896551724138E-2</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C93">
-        <v>1.4866204162537165E-2</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D93">
-        <v>9.316770186335404E-3</v>
+        <v>4.140786749482402E-3</v>
       </c>
       <c r="E93">
-        <v>1.4031805425631431E-2</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F93">
-        <v>1.1818181818181818E-2</v>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="G93">
-        <v>8.21917808219178E-3</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2905,22 +2899,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>4.3103448275862068E-3</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C94">
         <v>1.0901883052527254E-2</v>
       </c>
       <c r="D94">
-        <v>4.140786749482402E-3</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E94">
-        <v>1.216089803554724E-2</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F94">
-        <v>3.6363636363636364E-3</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G94">
-        <v>3.6529680365296802E-3</v>
+        <v>1.2785388127853882E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2928,22 +2922,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>7.7586206896551723E-3</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C95">
-        <v>3.9643211100099107E-3</v>
+        <v>1.288404360753221E-2</v>
       </c>
       <c r="D95">
-        <v>4.140786749482402E-3</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E95">
-        <v>5.6127221702525721E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F95">
-        <v>4.5454545454545452E-3</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="G95">
-        <v>3.6529680365296802E-3</v>
+        <v>1.2785388127853882E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,22 +2945,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>1.0344827586206896E-2</v>
+        <v>3.4482758620689655E-3</v>
       </c>
       <c r="C96">
-        <v>1.0901883052527254E-2</v>
+        <v>4.9554013875123884E-3</v>
       </c>
       <c r="D96">
-        <v>6.2111801242236021E-3</v>
+        <v>5.175983436853002E-3</v>
       </c>
       <c r="E96">
-        <v>1.1225444340505144E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F96">
-        <v>1.6363636363636365E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G96">
-        <v>1.2785388127853882E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2974,22 +2968,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>1.2068965517241379E-2</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C97">
         <v>1.288404360753221E-2</v>
       </c>
       <c r="D97">
-        <v>9.316770186335404E-3</v>
+        <v>5.175983436853002E-3</v>
       </c>
       <c r="E97">
-        <v>1.3096351730589336E-2</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F97">
-        <v>1.3636363636363636E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G97">
-        <v>1.2785388127853882E-2</v>
+        <v>7.3059360730593605E-3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2997,22 +2991,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>3.4482758620689655E-3</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C98">
-        <v>4.9554013875123884E-3</v>
+        <v>1.288404360753221E-2</v>
       </c>
       <c r="D98">
-        <v>5.175983436853002E-3</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E98">
-        <v>3.7418147801683817E-3</v>
+        <v>9.3545369504209538E-3</v>
       </c>
       <c r="F98">
-        <v>3.6363636363636364E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G98">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,22 +3014,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>1.1206896551724138E-2</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C99">
-        <v>1.288404360753221E-2</v>
+        <v>1.1892963330029732E-2</v>
       </c>
       <c r="D99">
-        <v>5.175983436853002E-3</v>
+        <v>1.1387163561076604E-2</v>
       </c>
       <c r="E99">
-        <v>5.6127221702525721E-3</v>
+        <v>9.3545369504209538E-3</v>
       </c>
       <c r="F99">
-        <v>9.0909090909090905E-3</v>
+        <v>0.01</v>
       </c>
       <c r="G99">
-        <v>7.3059360730593605E-3</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3043,19 +3037,19 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0344827586206896E-2</v>
       </c>
       <c r="C100">
-        <v>1.288404360753221E-2</v>
+        <v>9.9108027750247768E-3</v>
       </c>
       <c r="D100">
-        <v>9.316770186335404E-3</v>
+        <v>1.3457556935817806E-2</v>
       </c>
       <c r="E100">
-        <v>9.3545369504209538E-3</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F100">
-        <v>0.01</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G100">
         <v>1.0958904109589041E-2</v>
@@ -3066,22 +3060,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>1.2068965517241379E-2</v>
+        <v>1.3793103448275862E-2</v>
       </c>
       <c r="C101">
-        <v>1.1892963330029732E-2</v>
+        <v>8.9197224975222991E-3</v>
       </c>
       <c r="D101">
-        <v>1.1387163561076604E-2</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E101">
-        <v>9.3545369504209538E-3</v>
+        <v>1.028999064546305E-2</v>
       </c>
       <c r="F101">
-        <v>0.01</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G101">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6529680365296802E-3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3089,22 +3083,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>1.0344827586206896E-2</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C102">
-        <v>9.9108027750247768E-3</v>
+        <v>1.5857284440039643E-2</v>
       </c>
       <c r="D102">
-        <v>1.3457556935817806E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E102">
-        <v>7.4836295603367634E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F102">
-        <v>7.2727272727272727E-3</v>
+        <v>1.1818181818181818E-2</v>
       </c>
       <c r="G102">
-        <v>1.0958904109589041E-2</v>
+        <v>9.1324200913242004E-3</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3112,19 +3106,19 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>1.3793103448275862E-2</v>
+        <v>5.1724137931034482E-3</v>
       </c>
       <c r="C103">
-        <v>8.9197224975222991E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D103">
-        <v>1.2422360248447204E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E103">
-        <v>1.028999064546305E-2</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F103">
-        <v>7.2727272727272727E-3</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G103">
         <v>3.6529680365296802E-3</v>
@@ -3135,22 +3129,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>1.1206896551724138E-2</v>
+        <v>6.8965517241379309E-3</v>
       </c>
       <c r="C104">
-        <v>1.5857284440039643E-2</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D104">
-        <v>6.2111801242236021E-3</v>
+        <v>1.5527950310559006E-2</v>
       </c>
       <c r="E104">
-        <v>1.3096351730589336E-2</v>
+        <v>1.216089803554724E-2</v>
       </c>
       <c r="F104">
-        <v>1.1818181818181818E-2</v>
+        <v>3.6363636363636364E-3</v>
       </c>
       <c r="G104">
-        <v>9.1324200913242004E-3</v>
+        <v>5.4794520547945206E-3</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,22 +3152,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>5.1724137931034482E-3</v>
+        <v>1.2068965517241379E-2</v>
       </c>
       <c r="C105">
-        <v>5.9464816650148661E-3</v>
+        <v>6.9375619425173438E-3</v>
       </c>
       <c r="D105">
-        <v>6.2111801242236021E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E105">
-        <v>3.7418147801683817E-3</v>
+        <v>1.5902712815715623E-2</v>
       </c>
       <c r="F105">
-        <v>9.0909090909090905E-3</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G105">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0045662100456621E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3181,22 +3175,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>6.8965517241379309E-3</v>
+        <v>1.1206896551724138E-2</v>
       </c>
       <c r="C106">
-        <v>1.9821605550049554E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D106">
-        <v>1.5527950310559006E-2</v>
+        <v>6.2111801242236021E-3</v>
       </c>
       <c r="E106">
-        <v>1.216089803554724E-2</v>
+        <v>1.1225444340505144E-2</v>
       </c>
       <c r="F106">
-        <v>3.6363636363636364E-3</v>
+        <v>7.2727272727272727E-3</v>
       </c>
       <c r="G106">
-        <v>5.4794520547945206E-3</v>
+        <v>1.2785388127853882E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3204,22 +3198,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>1.2068965517241379E-2</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C107">
-        <v>6.9375619425173438E-3</v>
+        <v>5.9464816650148661E-3</v>
       </c>
       <c r="D107">
-        <v>1.2422360248447204E-2</v>
+        <v>9.316770186335404E-3</v>
       </c>
       <c r="E107">
-        <v>1.5902712815715623E-2</v>
+        <v>5.6127221702525721E-3</v>
       </c>
       <c r="F107">
-        <v>1.090909090909091E-2</v>
+        <v>9.0909090909090905E-3</v>
       </c>
       <c r="G107">
-        <v>1.0045662100456621E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,22 +3221,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>1.1206896551724138E-2</v>
+        <v>7.7586206896551723E-3</v>
       </c>
       <c r="C108">
-        <v>5.9464816650148661E-3</v>
+        <v>4.9554013875123884E-3</v>
       </c>
       <c r="D108">
-        <v>6.2111801242236021E-3</v>
+        <v>1.0351966873706004E-2</v>
       </c>
       <c r="E108">
-        <v>1.1225444340505144E-2</v>
+        <v>9.3545369504209538E-3</v>
       </c>
       <c r="F108">
-        <v>7.2727272727272727E-3</v>
+        <v>5.454545454545455E-3</v>
       </c>
       <c r="G108">
-        <v>1.2785388127853882E-2</v>
+        <v>1.0045662100456621E-2</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3250,22 +3244,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>7.7586206896551723E-3</v>
+        <v>9.482758620689655E-3</v>
       </c>
       <c r="C109">
-        <v>5.9464816650148661E-3</v>
+        <v>3.9643211100099107E-3</v>
       </c>
       <c r="D109">
-        <v>9.316770186335404E-3</v>
+        <v>1.2422360248447204E-2</v>
       </c>
       <c r="E109">
-        <v>5.6127221702525721E-3</v>
+        <v>1.3096351730589336E-2</v>
       </c>
       <c r="F109">
-        <v>9.0909090909090905E-3</v>
+        <v>1.6363636363636365E-2</v>
       </c>
       <c r="G109">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1872146118721462E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3273,22 +3267,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>7.7586206896551723E-3</v>
+        <v>6.0344827586206896E-3</v>
       </c>
       <c r="C110">
-        <v>4.9554013875123884E-3</v>
+        <v>1.9821605550049554E-3</v>
       </c>
       <c r="D110">
-        <v>1.0351966873706004E-2</v>
+        <v>1.6563146997929608E-2</v>
       </c>
       <c r="E110">
-        <v>9.3545369504209538E-3</v>
+        <v>3.7418147801683817E-3</v>
       </c>
       <c r="F110">
-        <v>5.454545454545455E-3</v>
+        <v>1.8181818181818182E-3</v>
       </c>
       <c r="G110">
-        <v>1.0045662100456621E-2</v>
+        <v>1.8264840182648401E-3</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3296,22 +3290,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>9.482758620689655E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C111">
-        <v>3.9643211100099107E-3</v>
+        <v>1.5857284440039643E-2</v>
       </c>
       <c r="D111">
-        <v>1.2422360248447204E-2</v>
+        <v>5.175983436853002E-3</v>
       </c>
       <c r="E111">
-        <v>1.3096351730589336E-2</v>
+        <v>7.4836295603367634E-3</v>
       </c>
       <c r="F111">
-        <v>1.6363636363636365E-2</v>
+        <v>1.090909090909091E-2</v>
       </c>
       <c r="G111">
-        <v>1.1872146118721462E-2</v>
+        <v>1.0958904109589041E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3319,16 +3313,16 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>6.0344827586206896E-3</v>
+        <v>8.6206896551724137E-3</v>
       </c>
       <c r="C112">
         <v>1.9821605550049554E-3</v>
       </c>
       <c r="D112">
-        <v>1.6563146997929608E-2</v>
+        <v>1.0351966873706004E-2</v>
       </c>
       <c r="E112">
-        <v>3.7418147801683817E-3</v>
+        <v>1.8709073900841909E-3</v>
       </c>
       <c r="F112">
         <v>1.8181818181818182E-3</v>
@@ -3348,61 +3342,15 @@
         <v>1.5857284440039643E-2</v>
       </c>
       <c r="D113">
-        <v>5.175983436853002E-3</v>
+        <v>2.070393374741201E-3</v>
       </c>
       <c r="E113">
-        <v>7.4836295603367634E-3</v>
+        <v>2.8063610851262861E-3</v>
       </c>
       <c r="F113">
-        <v>1.090909090909091E-2</v>
+        <v>1.3636363636363636E-2</v>
       </c>
       <c r="G113">
-        <v>1.0958904109589041E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>119</v>
-      </c>
-      <c r="B114">
-        <v>8.6206896551724137E-3</v>
-      </c>
-      <c r="C114">
-        <v>1.9821605550049554E-3</v>
-      </c>
-      <c r="D114">
-        <v>1.0351966873706004E-2</v>
-      </c>
-      <c r="E114">
-        <v>1.8709073900841909E-3</v>
-      </c>
-      <c r="F114">
-        <v>1.8181818181818182E-3</v>
-      </c>
-      <c r="G114">
-        <v>1.8264840182648401E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115">
-        <v>8.6206896551724137E-3</v>
-      </c>
-      <c r="C115">
-        <v>1.5857284440039643E-2</v>
-      </c>
-      <c r="D115">
-        <v>2.070393374741201E-3</v>
-      </c>
-      <c r="E115">
-        <v>2.8063610851262861E-3</v>
-      </c>
-      <c r="F115">
-        <v>1.3636363636363636E-2</v>
-      </c>
-      <c r="G115">
         <v>1.4611872146118721E-2</v>
       </c>
     </row>

--- a/Ingredient_Matrix.xlsx
+++ b/Ingredient_Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdasilva/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A88346B-5CA9-A54F-8A1F-7CAAF5C55AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F368463-8F0A-9443-B0B0-BDCF761194DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="27640" windowHeight="15960" xr2:uid="{D33EB914-B01A-C540-8BC4-E46DAEAD7A3F}"/>
+    <workbookView xWindow="1420" yWindow="500" windowWidth="27640" windowHeight="15960" xr2:uid="{D33EB914-B01A-C540-8BC4-E46DAEAD7A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -744,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4FDCBC-D219-0543-B5AD-79DED698C7F9}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -783,22 +783,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1.0344827586206896E-2</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C2">
-        <v>9.9108027750247768E-3</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D2">
-        <v>5.175983436853002E-3</v>
+        <v>5.3191489361702126E-3</v>
       </c>
       <c r="E2">
-        <v>1.028999064546305E-2</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F2">
-        <v>3.6363636363636364E-3</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G2">
-        <v>1.5525114155251141E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -806,22 +806,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7.7586206896551723E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C3">
-        <v>1.1892963330029732E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D3">
-        <v>6.2111801242236021E-3</v>
+        <v>1.7021276595744681E-2</v>
       </c>
       <c r="E3">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F3">
-        <v>1.090909090909091E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G3">
-        <v>1.1872146118721462E-2</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -829,22 +829,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1.0344827586206896E-2</v>
+        <v>9.5735422106179285E-3</v>
       </c>
       <c r="C4">
-        <v>1.1892963330029732E-2</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D4">
-        <v>9.316770186335404E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E4">
-        <v>1.1225444340505144E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F4">
-        <v>1.090909090909091E-2</v>
+        <v>1.6713091922005572E-2</v>
       </c>
       <c r="G4">
-        <v>1.0958904109589041E-2</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -852,22 +852,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.1206896551724138E-2</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C5">
-        <v>1.4866204162537165E-2</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D5">
-        <v>6.2111801242236021E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E5">
-        <v>7.4836295603367634E-3</v>
+        <v>2.8382213812677389E-3</v>
       </c>
       <c r="F5">
-        <v>1.1818181818181818E-2</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G5">
-        <v>1.1872146118721462E-2</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -875,22 +875,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>3.4482758620689655E-3</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C6">
-        <v>1.5857284440039643E-2</v>
+        <v>5.0150451354062184E-3</v>
       </c>
       <c r="D6">
-        <v>2.070393374741201E-3</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="E6">
-        <v>1.8709073900841909E-3</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F6">
-        <v>3.6363636363636364E-3</v>
+        <v>5.5710306406685237E-3</v>
       </c>
       <c r="G6">
-        <v>3.6529680365296802E-3</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -898,22 +898,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>3.4482758620689655E-3</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C7">
-        <v>1.3875123885034688E-2</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D7">
-        <v>4.140786749482402E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E7">
-        <v>3.7418147801683817E-3</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F7">
-        <v>1.2727272727272728E-2</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G7">
-        <v>1.1872146118721462E-2</v>
+        <v>1.3786764705882353E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -921,22 +921,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1.0344827586206896E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C8">
-        <v>1.0901883052527254E-2</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D8">
-        <v>4.140786749482402E-3</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E8">
-        <v>9.3545369504209538E-3</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F8">
-        <v>8.1818181818181825E-3</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G8">
-        <v>1.4611872146118721E-2</v>
+        <v>1.2867647058823529E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>6.0344827586206896E-3</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C9">
-        <v>4.9554013875123884E-3</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D9">
-        <v>1.4492753623188406E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E9">
-        <v>3.7418147801683817E-3</v>
+        <v>1.6083254493850521E-2</v>
       </c>
       <c r="F9">
-        <v>3.6363636363636364E-3</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G9">
-        <v>9.1324200913242004E-3</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,22 +967,22 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>3.4482758620689655E-3</v>
+        <v>6.9625761531766752E-3</v>
       </c>
       <c r="C10">
-        <v>1.9821605550049554E-3</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D10">
-        <v>1.6563146997929608E-2</v>
+        <v>1.5957446808510637E-2</v>
       </c>
       <c r="E10">
-        <v>5.6127221702525721E-3</v>
+        <v>1.2298959318826869E-2</v>
       </c>
       <c r="F10">
-        <v>1.8181818181818182E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G10">
-        <v>5.4794520547945206E-3</v>
+        <v>5.5147058823529415E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -990,22 +990,22 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>7.7586206896551723E-3</v>
+        <v>5.2219321148825066E-3</v>
       </c>
       <c r="C11">
-        <v>1.288404360753221E-2</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D11">
-        <v>1.5527950310559006E-2</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E11">
-        <v>1.6838166510757719E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F11">
-        <v>1.1818181818181818E-2</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G11">
-        <v>5.4794520547945206E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1013,22 +1013,22 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>6.0344827586206896E-3</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C12">
-        <v>4.9554013875123884E-3</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D12">
-        <v>4.140786749482402E-3</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E12">
-        <v>8.4190832553788595E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F12">
-        <v>1.2727272727272728E-2</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G12">
-        <v>1.643835616438356E-2</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1036,22 +1036,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>9.482758620689655E-3</v>
+        <v>1.392515230635335E-2</v>
       </c>
       <c r="C13">
-        <v>1.0901883052527254E-2</v>
+        <v>9.0270812437311942E-3</v>
       </c>
       <c r="D13">
-        <v>9.316770186335404E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E13">
-        <v>1.3096351730589336E-2</v>
+        <v>1.0406811731315043E-2</v>
       </c>
       <c r="F13">
-        <v>1.090909090909091E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G13">
-        <v>8.21917808219178E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1059,22 +1059,22 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>9.482758620689655E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C14">
-        <v>8.9197224975222991E-3</v>
+        <v>1.0030090270812437E-2</v>
       </c>
       <c r="D14">
-        <v>5.175983436853002E-3</v>
+        <v>1.3829787234042552E-2</v>
       </c>
       <c r="E14">
-        <v>9.3545369504209538E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F14">
-        <v>7.2727272727272727E-3</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G14">
-        <v>1.1872146118721462E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,22 +1082,22 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1.0344827586206896E-2</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C15">
-        <v>1.0901883052527254E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D15">
-        <v>1.2422360248447204E-2</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="E15">
-        <v>1.3096351730589336E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F15">
-        <v>1.2727272727272728E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G15">
-        <v>1.0045662100456621E-2</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1105,22 +1105,22 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1.7241379310344827E-3</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C16">
-        <v>6.9375619425173438E-3</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D16">
-        <v>2.070393374741201E-3</v>
+        <v>1.1702127659574468E-2</v>
       </c>
       <c r="E16">
-        <v>1.8709073900841909E-3</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F16">
-        <v>1.8181818181818182E-3</v>
+        <v>1.021355617455896E-2</v>
       </c>
       <c r="G16">
-        <v>7.3059360730593605E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1128,22 +1128,22 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>2.5862068965517241E-3</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C17">
-        <v>6.9375619425173438E-3</v>
+        <v>1.3039117352056168E-2</v>
       </c>
       <c r="D17">
-        <v>7.246376811594203E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E17">
-        <v>5.6127221702525721E-3</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F17">
-        <v>5.454545454545455E-3</v>
+        <v>1.021355617455896E-2</v>
       </c>
       <c r="G17">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1151,22 +1151,22 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>1.0344827586206896E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C18">
-        <v>7.9286422200198214E-3</v>
+        <v>1.3039117352056168E-2</v>
       </c>
       <c r="D18">
-        <v>1.6563146997929608E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
       <c r="E18">
-        <v>1.028999064546305E-2</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F18">
-        <v>9.0909090909090905E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G18">
-        <v>5.4794520547945206E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1174,22 +1174,22 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>3.4482758620689655E-3</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C19">
-        <v>1.9821605550049554E-3</v>
+        <v>5.0150451354062184E-3</v>
       </c>
       <c r="D19">
-        <v>1.8633540372670808E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
       <c r="E19">
-        <v>1.028999064546305E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F19">
-        <v>1.8181818181818182E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G19">
-        <v>3.6529680365296802E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1197,22 +1197,22 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>7.7586206896551723E-3</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C20">
-        <v>1.1892963330029732E-2</v>
+        <v>1.3039117352056168E-2</v>
       </c>
       <c r="D20">
-        <v>4.140786749482402E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E20">
-        <v>9.3545369504209538E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F20">
-        <v>1.6363636363636365E-2</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G20">
-        <v>1.643835616438356E-2</v>
+        <v>1.2867647058823529E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1220,22 +1220,22 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>1.2931034482758621E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C21">
-        <v>1.4866204162537165E-2</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D21">
-        <v>1.2422360248447204E-2</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E21">
-        <v>1.3096351730589336E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F21">
-        <v>1.2727272727272728E-2</v>
+        <v>1.6713091922005572E-2</v>
       </c>
       <c r="G21">
-        <v>7.3059360730593605E-3</v>
+        <v>1.2867647058823529E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1243,22 +1243,22 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>6.8965517241379309E-3</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C22">
-        <v>1.0901883052527254E-2</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D22">
-        <v>9.316770186335404E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E22">
-        <v>1.3096351730589336E-2</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F22">
-        <v>1.090909090909091E-2</v>
+        <v>4.642525533890436E-3</v>
       </c>
       <c r="G22">
-        <v>1.1872146118721462E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1266,22 +1266,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>9.482758620689655E-3</v>
+        <v>4.3516100957354219E-3</v>
       </c>
       <c r="C23">
-        <v>1.3875123885034688E-2</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D23">
-        <v>4.140786749482402E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E23">
-        <v>3.7418147801683817E-3</v>
+        <v>1.2298959318826869E-2</v>
       </c>
       <c r="F23">
-        <v>3.6363636363636364E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G23">
-        <v>3.6529680365296802E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1289,22 +1289,22 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>1.6379310344827588E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C24">
-        <v>1.7839444995044598E-2</v>
+        <v>1.5045135406218655E-2</v>
       </c>
       <c r="D24">
-        <v>1.6563146997929608E-2</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E24">
-        <v>1.6838166510757719E-2</v>
+        <v>1.4191106906338695E-2</v>
       </c>
       <c r="F24">
-        <v>1.5454545454545455E-2</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G24">
-        <v>1.5525114155251141E-2</v>
+        <v>8.2720588235294119E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1312,22 +1312,22 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>1.2931034482758621E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C25">
-        <v>3.9643211100099107E-3</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D25">
-        <v>1.8633540372670808E-2</v>
+        <v>1.1702127659574468E-2</v>
       </c>
       <c r="E25">
-        <v>1.4967259120673527E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F25">
-        <v>3.6363636363636364E-3</v>
+        <v>1.6713091922005572E-2</v>
       </c>
       <c r="G25">
-        <v>1.5525114155251141E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1335,22 +1335,22 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>1.2068965517241379E-2</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C26">
-        <v>5.9464816650148661E-3</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D26">
-        <v>1.0351966873706004E-2</v>
+        <v>5.3191489361702126E-3</v>
       </c>
       <c r="E26">
-        <v>1.1225444340505144E-2</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F26">
-        <v>9.0909090909090905E-3</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G26">
-        <v>1.1872146118721462E-2</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1358,22 +1358,22 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>8.6206896551724137E-3</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C27">
-        <v>5.9464816650148661E-3</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D27">
-        <v>1.0351966873706004E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E27">
-        <v>1.1225444340505144E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F27">
-        <v>1.3636363636363636E-2</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G27">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1381,22 +1381,22 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>5.1724137931034482E-3</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C28">
-        <v>5.9464816650148661E-3</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D28">
-        <v>1.4492753623188406E-2</v>
+        <v>1.1702127659574468E-2</v>
       </c>
       <c r="E28">
-        <v>3.7418147801683817E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F28">
-        <v>3.6363636363636364E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G28">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1404,22 +1404,22 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>1.3793103448275862E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C29">
-        <v>1.7839444995044598E-2</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D29">
-        <v>1.6563146997929608E-2</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E29">
-        <v>1.6838166510757719E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F29">
-        <v>1.090909090909091E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G29">
-        <v>1.2785388127853882E-2</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1427,22 +1427,22 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>1.3793103448275862E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C30">
-        <v>4.9554013875123884E-3</v>
+        <v>1.4042126379137413E-2</v>
       </c>
       <c r="D30">
-        <v>4.140786749482402E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E30">
-        <v>1.1225444340505144E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F30">
-        <v>1.5454545454545455E-2</v>
+        <v>1.6713091922005572E-2</v>
       </c>
       <c r="G30">
-        <v>1.2785388127853882E-2</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1450,22 +1450,22 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>1.0344827586206896E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C31">
-        <v>3.9643211100099107E-3</v>
+        <v>1.4042126379137413E-2</v>
       </c>
       <c r="D31">
-        <v>1.4492753623188406E-2</v>
+        <v>1.1702127659574468E-2</v>
       </c>
       <c r="E31">
-        <v>1.3096351730589336E-2</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F31">
-        <v>1.3636363636363636E-2</v>
+        <v>5.5710306406685237E-3</v>
       </c>
       <c r="G31">
-        <v>1.643835616438356E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1473,22 +1473,22 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>3.4482758620689655E-3</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C32">
-        <v>3.9643211100099107E-3</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D32">
-        <v>6.2111801242236021E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E32">
-        <v>3.7418147801683817E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F32">
-        <v>3.6363636363636364E-3</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G32">
-        <v>3.6529680365296802E-3</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1496,22 +1496,22 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>2.5862068965517241E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C33">
-        <v>1.9821605550049554E-3</v>
+        <v>1.0030090270812437E-2</v>
       </c>
       <c r="D33">
-        <v>2.070393374741201E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E33">
-        <v>1.8709073900841909E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F33">
-        <v>1.8181818181818182E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G33">
-        <v>3.6529680365296802E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1519,22 +1519,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>1.2068965517241379E-2</v>
+        <v>1.3054830287206266E-2</v>
       </c>
       <c r="C34">
-        <v>1.1892963330029732E-2</v>
+        <v>1.4042126379137413E-2</v>
       </c>
       <c r="D34">
-        <v>1.2422360248447204E-2</v>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="E34">
-        <v>1.1225444340505144E-2</v>
+        <v>1.2298959318826869E-2</v>
       </c>
       <c r="F34">
-        <v>1.090909090909091E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G34">
-        <v>1.0045662100456621E-2</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1542,22 +1542,22 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>4.3103448275862068E-3</v>
+        <v>5.2219321148825066E-3</v>
       </c>
       <c r="C35">
-        <v>1.9821605550049554E-3</v>
+        <v>1.4042126379137413E-2</v>
       </c>
       <c r="D35">
-        <v>2.070393374741201E-3</v>
+        <v>7.4468085106382982E-3</v>
       </c>
       <c r="E35">
-        <v>1.8709073900841909E-3</v>
+        <v>1.7029328287606435E-2</v>
       </c>
       <c r="F35">
-        <v>3.6363636363636364E-3</v>
+        <v>1.021355617455896E-2</v>
       </c>
       <c r="G35">
-        <v>1.8264840182648401E-3</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1565,22 +1565,22 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>7.7586206896551723E-3</v>
+        <v>6.9625761531766752E-3</v>
       </c>
       <c r="C36">
-        <v>3.9643211100099107E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D36">
-        <v>6.2111801242236021E-3</v>
+        <v>3.1914893617021275E-3</v>
       </c>
       <c r="E36">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F36">
-        <v>9.0909090909090905E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G36">
-        <v>7.3059360730593605E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1588,22 +1588,22 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>4.3103448275862068E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C37">
-        <v>5.9464816650148661E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D37">
-        <v>1.2422360248447204E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E37">
-        <v>3.7418147801683817E-3</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F37">
-        <v>5.454545454545455E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G37">
-        <v>5.4794520547945206E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1611,22 +1611,22 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>8.6206896551724137E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C38">
-        <v>1.7839444995044598E-2</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D38">
-        <v>4.140786749482402E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E38">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F38">
-        <v>9.0909090909090905E-3</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G38">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1634,22 +1634,22 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>7.7586206896551723E-3</v>
+        <v>2.6109660574412533E-3</v>
       </c>
       <c r="C39">
-        <v>1.5857284440039643E-2</v>
+        <v>8.0240722166499499E-3</v>
       </c>
       <c r="D39">
-        <v>8.2815734989648039E-3</v>
+        <v>7.4468085106382982E-3</v>
       </c>
       <c r="E39">
-        <v>3.7418147801683817E-3</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F39">
-        <v>1.4545454545454545E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G39">
-        <v>1.1872146118721462E-2</v>
+        <v>1.3786764705882353E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1657,22 +1657,22 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>6.8965517241379309E-3</v>
+        <v>1.392515230635335E-2</v>
       </c>
       <c r="C40">
-        <v>1.9821605550049554E-3</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D40">
-        <v>9.316770186335404E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E40">
-        <v>5.6127221702525721E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F40">
-        <v>3.6363636363636364E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G40">
-        <v>3.6529680365296802E-3</v>
+        <v>8.2720588235294119E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1680,22 +1680,22 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>6.0344827586206896E-3</v>
+        <v>5.2219321148825066E-3</v>
       </c>
       <c r="C41">
-        <v>1.0901883052527254E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D41">
-        <v>6.2111801242236021E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E41">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F41">
-        <v>1.090909090909091E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G41">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1703,22 +1703,22 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>8.6206896551724137E-3</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C42">
-        <v>1.1892963330029732E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D42">
-        <v>8.2815734989648039E-3</v>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="E42">
-        <v>3.7418147801683817E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F42">
-        <v>3.6363636363636364E-3</v>
+        <v>1.021355617455896E-2</v>
       </c>
       <c r="G42">
-        <v>5.4794520547945206E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1726,22 +1726,22 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>1.2068965517241379E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C43">
-        <v>1.7839444995044598E-2</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D43">
-        <v>6.2111801242236021E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E43">
-        <v>1.3096351730589336E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F43">
-        <v>1.1818181818181818E-2</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G43">
-        <v>1.1872146118721462E-2</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -1749,22 +1749,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>6.0344827586206896E-3</v>
+        <v>5.2219321148825066E-3</v>
       </c>
       <c r="C44">
-        <v>1.9821605550049554E-3</v>
+        <v>1.5045135406218655E-2</v>
       </c>
       <c r="D44">
-        <v>2.070393374741201E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E44">
-        <v>1.8709073900841909E-3</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F44">
-        <v>7.2727272727272727E-3</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G44">
-        <v>1.8264840182648401E-3</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1772,22 +1772,22 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>3.4482758620689655E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C45">
-        <v>1.9821605550049554E-3</v>
+        <v>1.3039117352056168E-2</v>
       </c>
       <c r="D45">
-        <v>2.070393374741201E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E45">
-        <v>1.8709073900841909E-3</v>
+        <v>1.0406811731315043E-2</v>
       </c>
       <c r="F45">
-        <v>1.8181818181818182E-3</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G45">
-        <v>1.8264840182648401E-3</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1795,22 +1795,22 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>1.1206896551724138E-2</v>
+        <v>2.6109660574412533E-3</v>
       </c>
       <c r="C46">
-        <v>1.6848364717542121E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D46">
-        <v>1.6563146997929608E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E46">
-        <v>1.4031805425631431E-2</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F46">
-        <v>1.3636363636363636E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G46">
-        <v>1.643835616438356E-2</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1818,22 +1818,22 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>1.7241379310344827E-3</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C47">
-        <v>2.973240832507433E-3</v>
+        <v>1.3039117352056168E-2</v>
       </c>
       <c r="D47">
-        <v>2.070393374741201E-3</v>
+        <v>1.1702127659574468E-2</v>
       </c>
       <c r="E47">
-        <v>1.8709073900841909E-3</v>
+        <v>1.4191106906338695E-2</v>
       </c>
       <c r="F47">
-        <v>1.8181818181818182E-3</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G47">
-        <v>3.6529680365296802E-3</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1841,22 +1841,22 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>1.0344827586206896E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C48">
-        <v>3.9643211100099107E-3</v>
+        <v>8.0240722166499499E-3</v>
       </c>
       <c r="D48">
-        <v>8.2815734989648039E-3</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E48">
-        <v>1.028999064546305E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F48">
-        <v>7.2727272727272727E-3</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G48">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1864,22 +1864,22 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>1.2068965517241379E-2</v>
+        <v>1.392515230635335E-2</v>
       </c>
       <c r="C49">
-        <v>9.9108027750247768E-3</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D49">
-        <v>1.4492753623188406E-2</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="E49">
-        <v>1.1225444340505144E-2</v>
+        <v>1.7029328287606435E-2</v>
       </c>
       <c r="F49">
-        <v>3.6363636363636364E-3</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G49">
-        <v>7.3059360730593605E-3</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1887,22 +1887,22 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>1.2068965517241379E-2</v>
+        <v>1.392515230635335E-2</v>
       </c>
       <c r="C50">
-        <v>9.9108027750247768E-3</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D50">
-        <v>1.4492753623188406E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E50">
-        <v>1.1225444340505144E-2</v>
+        <v>1.5137180700094607E-2</v>
       </c>
       <c r="F50">
-        <v>3.6363636363636364E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G50">
-        <v>7.3059360730593605E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1910,22 +1910,22 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>1.0344827586206896E-2</v>
+        <v>1.392515230635335E-2</v>
       </c>
       <c r="C51">
-        <v>7.9286422200198214E-3</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D51">
-        <v>7.246376811594203E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E51">
-        <v>1.028999064546305E-2</v>
+        <v>1.5137180700094607E-2</v>
       </c>
       <c r="F51">
-        <v>1.6363636363636365E-2</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G51">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1933,22 +1933,22 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>7.7586206896551723E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C52">
-        <v>1.9821605550049554E-3</v>
+        <v>1.5045135406218655E-2</v>
       </c>
       <c r="D52">
-        <v>2.070393374741201E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E52">
-        <v>1.8709073900841909E-3</v>
+        <v>1.5137180700094607E-2</v>
       </c>
       <c r="F52">
-        <v>1.8181818181818182E-3</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G52">
-        <v>1.8264840182648401E-3</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1956,22 +1956,22 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>9.482758620689655E-3</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C53">
-        <v>7.9286422200198214E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D53">
-        <v>6.2111801242236021E-3</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E53">
-        <v>7.4836295603367634E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F53">
-        <v>1.1818181818181818E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G53">
-        <v>7.3059360730593605E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1979,22 +1979,22 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>1.1206896551724138E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C54">
-        <v>6.9375619425173438E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D54">
-        <v>1.2422360248447204E-2</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E54">
-        <v>7.4836295603367634E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F54">
-        <v>1.4545454545454545E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G54">
-        <v>1.2785388127853882E-2</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2002,22 +2002,22 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>1.1206896551724138E-2</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C55">
-        <v>1.5857284440039643E-2</v>
+        <v>1.8054162487462388E-2</v>
       </c>
       <c r="D55">
-        <v>4.140786749482402E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E55">
-        <v>3.7418147801683817E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F55">
-        <v>1.4545454545454545E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G55">
-        <v>1.4611872146118721E-2</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2025,22 +2025,22 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>1.2068965517241379E-2</v>
+        <v>1.3054830287206266E-2</v>
       </c>
       <c r="C56">
-        <v>7.9286422200198214E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D56">
-        <v>1.0351966873706004E-2</v>
+        <v>1.3829787234042552E-2</v>
       </c>
       <c r="E56">
-        <v>1.216089803554724E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F56">
-        <v>1.4545454545454545E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G56">
-        <v>7.3059360730593605E-3</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -2048,22 +2048,22 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>1.2931034482758621E-2</v>
+        <v>1.3054830287206266E-2</v>
       </c>
       <c r="C57">
-        <v>3.9643211100099107E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D57">
-        <v>1.2422360248447204E-2</v>
+        <v>1.3829787234042552E-2</v>
       </c>
       <c r="E57">
-        <v>1.3096351730589336E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F57">
-        <v>1.090909090909091E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G57">
-        <v>9.1324200913242004E-3</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2071,22 +2071,22 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>1.2931034482758621E-2</v>
+        <v>1.3054830287206266E-2</v>
       </c>
       <c r="C58">
-        <v>3.9643211100099107E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D58">
-        <v>1.3457556935817806E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E58">
-        <v>1.3096351730589336E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F58">
-        <v>1.090909090909091E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G58">
-        <v>9.1324200913242004E-3</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -2094,22 +2094,22 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>1.2931034482758621E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C59">
-        <v>3.9643211100099107E-3</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D59">
-        <v>1.3457556935817806E-2</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E59">
-        <v>1.3096351730589336E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F59">
-        <v>1.090909090909091E-2</v>
+        <v>1.4856081708449397E-2</v>
       </c>
       <c r="G59">
-        <v>9.1324200913242004E-3</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -2117,22 +2117,22 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>8.6206896551724137E-3</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C60">
-        <v>1.7839444995044598E-2</v>
+        <v>8.0240722166499499E-3</v>
       </c>
       <c r="D60">
-        <v>4.140786749482402E-3</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="E60">
-        <v>3.7418147801683817E-3</v>
+        <v>1.2298959318826869E-2</v>
       </c>
       <c r="F60">
-        <v>1.090909090909091E-2</v>
+        <v>1.4856081708449397E-2</v>
       </c>
       <c r="G60">
-        <v>1.1872146118721462E-2</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -2140,22 +2140,22 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>1.2068965517241379E-2</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C61">
-        <v>3.9643211100099107E-3</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D61">
-        <v>1.4492753623188406E-2</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E61">
-        <v>1.3096351730589336E-2</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F61">
-        <v>7.2727272727272727E-3</v>
+        <v>1.4856081708449397E-2</v>
       </c>
       <c r="G61">
-        <v>7.3059360730593605E-3</v>
+        <v>1.2867647058823529E-2</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -2163,22 +2163,22 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>1.2068965517241379E-2</v>
+        <v>9.5735422106179285E-3</v>
       </c>
       <c r="C62">
-        <v>3.9643211100099107E-3</v>
+        <v>8.0240722166499499E-3</v>
       </c>
       <c r="D62">
-        <v>1.4492753623188406E-2</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E62">
-        <v>1.3096351730589336E-2</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F62">
-        <v>7.2727272727272727E-3</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G62">
-        <v>7.3059360730593605E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -2186,22 +2186,22 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>1.0344827586206896E-2</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C63">
-        <v>1.4866204162537165E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D63">
-        <v>1.2422360248447204E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E63">
-        <v>1.4967259120673527E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F63">
-        <v>1.2727272727272728E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G63">
-        <v>1.1872146118721462E-2</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -2209,22 +2209,22 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>1.3793103448275862E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C64">
-        <v>5.9464816650148661E-3</v>
+        <v>8.0240722166499499E-3</v>
       </c>
       <c r="D64">
-        <v>1.2422360248447204E-2</v>
+        <v>7.4468085106382982E-3</v>
       </c>
       <c r="E64">
-        <v>1.4967259120673527E-2</v>
+        <v>1.0406811731315043E-2</v>
       </c>
       <c r="F64">
-        <v>9.0909090909090905E-3</v>
+        <v>1.6713091922005572E-2</v>
       </c>
       <c r="G64">
-        <v>1.0958904109589041E-2</v>
+        <v>1.3786764705882353E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -2232,22 +2232,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>1.3793103448275862E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C65">
-        <v>5.9464816650148661E-3</v>
+        <v>1.0030090270812437E-2</v>
       </c>
       <c r="D65">
-        <v>1.2422360248447204E-2</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E65">
-        <v>1.4967259120673527E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F65">
-        <v>9.0909090909090905E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G65">
-        <v>1.0958904109589041E-2</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -2255,22 +2255,22 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>1.3793103448275862E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C66">
-        <v>1.1892963330029732E-2</v>
+        <v>1.0030090270812437E-2</v>
       </c>
       <c r="D66">
-        <v>1.0351966873706004E-2</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E66">
-        <v>1.6838166510757719E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F66">
-        <v>1.090909090909091E-2</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G66">
-        <v>1.1872146118721462E-2</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2278,22 +2278,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C67">
-        <v>7.9286422200198214E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D67">
-        <v>6.2111801242236021E-3</v>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="E67">
-        <v>3.7418147801683817E-3</v>
+        <v>1.0406811731315043E-2</v>
       </c>
       <c r="F67">
-        <v>1.1818181818181818E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G67">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2301,22 +2301,22 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>1.2068965517241379E-2</v>
+        <v>1.7406440382941688E-3</v>
       </c>
       <c r="C68">
-        <v>1.288404360753221E-2</v>
+        <v>3.009027081243731E-3</v>
       </c>
       <c r="D68">
-        <v>1.1387163561076604E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E68">
-        <v>1.4031805425631431E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F68">
-        <v>1.1818181818181818E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G68">
-        <v>1.4611872146118721E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,22 +2324,22 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>2.5862068965517241E-3</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C69">
-        <v>1.9821605550049554E-3</v>
+        <v>1.7051153460381142E-2</v>
       </c>
       <c r="D69">
-        <v>2.070393374741201E-3</v>
+        <v>1.7021276595744681E-2</v>
       </c>
       <c r="E69">
-        <v>5.6127221702525721E-3</v>
+        <v>1.4191106906338695E-2</v>
       </c>
       <c r="F69">
-        <v>1.8181818181818182E-3</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G69">
-        <v>1.8264840182648401E-3</v>
+        <v>1.6544117647058824E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2347,22 +2347,22 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>6.0344827586206896E-3</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C70">
-        <v>1.288404360753221E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D70">
-        <v>9.316770186335404E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E70">
-        <v>1.028999064546305E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F70">
-        <v>1.3636363636363636E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G70">
-        <v>9.1324200913242004E-3</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2370,22 +2370,22 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>5.1724137931034482E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C71">
-        <v>1.4866204162537165E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D71">
-        <v>4.140786749482402E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E71">
-        <v>1.1225444340505144E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F71">
-        <v>1.2727272727272728E-2</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G71">
-        <v>1.5525114155251141E-2</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2393,22 +2393,22 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>1.0344827586206896E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C72">
-        <v>3.9643211100099107E-3</v>
+        <v>1.8054162487462388E-2</v>
       </c>
       <c r="D72">
-        <v>4.140786749482402E-3</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E72">
-        <v>3.7418147801683817E-3</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F72">
-        <v>1.3636363636363636E-2</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G72">
-        <v>1.0045662100456621E-2</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2416,22 +2416,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>3.4482758620689655E-3</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C73">
-        <v>1.9821605550049554E-3</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D73">
-        <v>8.2815734989648039E-3</v>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="E73">
-        <v>7.4836295603367634E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F73">
-        <v>0.01</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G73">
-        <v>3.6529680365296802E-3</v>
+        <v>5.5147058823529415E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2439,22 +2439,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>5.1724137931034482E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C74">
-        <v>1.9821605550049554E-3</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D74">
-        <v>4.140786749482402E-3</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E74">
-        <v>3.7418147801683817E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F74">
-        <v>1.8181818181818182E-3</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G74">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2462,22 +2462,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>1.3793103448275862E-2</v>
+        <v>6.9625761531766752E-3</v>
       </c>
       <c r="C75">
-        <v>6.9375619425173438E-3</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D75">
-        <v>1.2422360248447204E-2</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E75">
-        <v>7.4836295603367634E-3</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F75">
-        <v>9.0909090909090905E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G75">
-        <v>8.21917808219178E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,22 +2485,22 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>2.5862068965517241E-3</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C76">
-        <v>7.9286422200198214E-3</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D76">
-        <v>7.246376811594203E-3</v>
+        <v>8.5106382978723406E-3</v>
       </c>
       <c r="E76">
-        <v>1.8709073900841909E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F76">
-        <v>7.2727272727272727E-3</v>
+        <v>1.4856081708449397E-2</v>
       </c>
       <c r="G76">
-        <v>1.3698630136986301E-2</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2508,22 +2508,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>6.0344827586206896E-3</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C77">
-        <v>1.0901883052527254E-2</v>
+        <v>1.8054162487462388E-2</v>
       </c>
       <c r="D77">
-        <v>9.316770186335404E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E77">
-        <v>3.7418147801683817E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F77">
-        <v>7.2727272727272727E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G77">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -2531,22 +2531,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>6.0344827586206896E-3</v>
+        <v>4.3516100957354219E-3</v>
       </c>
       <c r="C78">
-        <v>3.9643211100099107E-3</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D78">
-        <v>2.070393374741201E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E78">
-        <v>5.6127221702525721E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F78">
-        <v>3.6363636363636364E-3</v>
+        <v>5.5710306406685237E-3</v>
       </c>
       <c r="G78">
-        <v>3.6529680365296802E-3</v>
+        <v>5.5147058823529415E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -2554,22 +2554,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>6.8965517241379309E-3</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C79">
-        <v>3.9643211100099107E-3</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D79">
-        <v>3.105590062111801E-3</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E79">
-        <v>3.7418147801683817E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F79">
-        <v>3.6363636363636364E-3</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G79">
-        <v>3.6529680365296802E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2577,22 +2577,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>5.1724137931034482E-3</v>
+        <v>4.3516100957354219E-3</v>
       </c>
       <c r="C80">
-        <v>1.3875123885034688E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D80">
-        <v>7.246376811594203E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E80">
-        <v>1.6838166510757719E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F80">
-        <v>0.01</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G80">
-        <v>9.1324200913242004E-3</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2600,22 +2600,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>1.2931034482758621E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C81">
-        <v>1.3875123885034688E-2</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D81">
-        <v>8.2815734989648039E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E81">
-        <v>1.216089803554724E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F81">
-        <v>1.090909090909091E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G81">
-        <v>1.0045662100456621E-2</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2623,22 +2623,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>1.0344827586206896E-2</v>
+        <v>1.7406440382941688E-3</v>
       </c>
       <c r="C82">
-        <v>9.9108027750247768E-3</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D82">
-        <v>1.2422360248447204E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E82">
-        <v>1.3096351730589336E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F82">
-        <v>9.0909090909090905E-3</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G82">
-        <v>3.6529680365296802E-3</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2646,22 +2646,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>1.1206896551724138E-2</v>
+        <v>2.6109660574412533E-3</v>
       </c>
       <c r="C83">
-        <v>1.5857284440039643E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D83">
-        <v>4.140786749482402E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E83">
-        <v>1.3096351730589336E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F83">
-        <v>1.2727272727272728E-2</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G83">
-        <v>1.4611872146118721E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2669,22 +2669,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>1.2068965517241379E-2</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C84">
-        <v>1.3875123885034688E-2</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D84">
-        <v>1.1387163561076604E-2</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E84">
-        <v>9.3545369504209538E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F84">
-        <v>5.454545454545455E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G84">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2692,22 +2692,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>1.0344827586206896E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C85">
-        <v>1.3875123885034688E-2</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D85">
-        <v>9.316770186335404E-3</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E85">
-        <v>1.1225444340505144E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F85">
-        <v>1.6363636363636365E-2</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G85">
-        <v>1.4611872146118721E-2</v>
+        <v>1.6544117647058824E-2</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -2715,22 +2715,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>1.1206896551724138E-2</v>
+        <v>1.392515230635335E-2</v>
       </c>
       <c r="C86">
-        <v>6.9375619425173438E-3</v>
+        <v>5.0150451354062184E-3</v>
       </c>
       <c r="D86">
-        <v>1.4492753623188406E-2</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E86">
-        <v>1.1225444340505144E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F86">
-        <v>7.2727272727272727E-3</v>
+        <v>1.5784586815227482E-2</v>
       </c>
       <c r="G86">
-        <v>9.1324200913242004E-3</v>
+        <v>1.2867647058823529E-2</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2738,22 +2738,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>8.6206896551724137E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C87">
-        <v>1.1892963330029732E-2</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D87">
-        <v>1.1387163561076604E-2</v>
+        <v>3.1914893617021275E-3</v>
       </c>
       <c r="E87">
-        <v>7.4836295603367634E-3</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F87">
-        <v>9.0909090909090905E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
       <c r="G87">
-        <v>1.0958904109589041E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2761,22 +2761,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>1.1206896551724138E-2</v>
+        <v>5.2219321148825066E-3</v>
       </c>
       <c r="C88">
-        <v>5.9464816650148661E-3</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D88">
-        <v>1.2422360248447204E-2</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E88">
-        <v>1.1225444340505144E-2</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F88">
-        <v>9.0909090909090905E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G88">
-        <v>3.6529680365296802E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2784,22 +2784,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>6.0344827586206896E-3</v>
+        <v>8.7032201914708437E-3</v>
       </c>
       <c r="C89">
-        <v>6.9375619425173438E-3</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D89">
-        <v>5.175983436853002E-3</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="E89">
-        <v>7.4836295603367634E-3</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F89">
-        <v>1.1818181818181818E-2</v>
+        <v>1.3927576601671309E-2</v>
       </c>
       <c r="G89">
-        <v>1.0045662100456621E-2</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2807,22 +2807,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>1.0344827586206896E-2</v>
+        <v>1.2184508268059183E-2</v>
       </c>
       <c r="C90">
-        <v>1.5857284440039643E-2</v>
+        <v>6.018054162487462E-3</v>
       </c>
       <c r="D90">
-        <v>1.1387163561076604E-2</v>
+        <v>1.0638297872340425E-2</v>
       </c>
       <c r="E90">
-        <v>1.1225444340505144E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F90">
-        <v>1.6363636363636365E-2</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G90">
-        <v>1.0958904109589041E-2</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2830,22 +2830,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>1.1206896551724138E-2</v>
+        <v>1.3054830287206266E-2</v>
       </c>
       <c r="C91">
-        <v>1.4866204162537165E-2</v>
+        <v>4.0120361083249749E-3</v>
       </c>
       <c r="D91">
-        <v>9.316770186335404E-3</v>
+        <v>1.9148936170212766E-2</v>
       </c>
       <c r="E91">
-        <v>1.4031805425631431E-2</v>
+        <v>1.5137180700094607E-2</v>
       </c>
       <c r="F91">
-        <v>1.1818181818181818E-2</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G91">
-        <v>8.21917808219178E-3</v>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2853,22 +2853,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>4.3103448275862068E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C92">
-        <v>1.0901883052527254E-2</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D92">
-        <v>4.140786749482402E-3</v>
+        <v>3.1914893617021275E-3</v>
       </c>
       <c r="E92">
-        <v>1.216089803554724E-2</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F92">
-        <v>3.6363636363636364E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
       <c r="G92">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1029411764705883E-2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2876,22 +2876,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>7.7586206896551723E-3</v>
+        <v>9.5735422106179285E-3</v>
       </c>
       <c r="C93">
-        <v>3.9643211100099107E-3</v>
+        <v>1.4042126379137413E-2</v>
       </c>
       <c r="D93">
-        <v>4.140786749482402E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E93">
-        <v>5.6127221702525721E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F93">
-        <v>4.5454545454545452E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G93">
-        <v>3.6529680365296802E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2899,22 +2899,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>1.0344827586206896E-2</v>
+        <v>6.9625761531766752E-3</v>
       </c>
       <c r="C94">
-        <v>1.0901883052527254E-2</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D94">
-        <v>6.2111801242236021E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E94">
-        <v>1.1225444340505144E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F94">
-        <v>1.6363636363636365E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G94">
-        <v>1.2785388127853882E-2</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2922,22 +2922,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>1.2068965517241379E-2</v>
+        <v>1.3054830287206266E-2</v>
       </c>
       <c r="C95">
-        <v>1.288404360753221E-2</v>
+        <v>1.5045135406218655E-2</v>
       </c>
       <c r="D95">
-        <v>9.316770186335404E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E95">
-        <v>1.3096351730589336E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F95">
-        <v>1.3636363636363636E-2</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G95">
-        <v>1.2785388127853882E-2</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -2945,22 +2945,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>3.4482758620689655E-3</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C96">
-        <v>4.9554013875123884E-3</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D96">
-        <v>5.175983436853002E-3</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E96">
-        <v>3.7418147801683817E-3</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F96">
-        <v>3.6363636363636364E-3</v>
+        <v>1.6713091922005572E-2</v>
       </c>
       <c r="G96">
-        <v>3.6529680365296802E-3</v>
+        <v>1.6544117647058824E-2</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -2968,22 +2968,22 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>1.1206896551724138E-2</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C97">
-        <v>1.288404360753221E-2</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D97">
-        <v>5.175983436853002E-3</v>
+        <v>1.9148936170212766E-2</v>
       </c>
       <c r="E97">
-        <v>5.6127221702525721E-3</v>
+        <v>1.0406811731315043E-2</v>
       </c>
       <c r="F97">
-        <v>9.0909090909090905E-3</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G97">
-        <v>7.3059360730593605E-3</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -2991,22 +2991,22 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C98">
-        <v>1.288404360753221E-2</v>
+        <v>8.0240722166499499E-3</v>
       </c>
       <c r="D98">
-        <v>9.316770186335404E-3</v>
+        <v>1.7021276595744681E-2</v>
       </c>
       <c r="E98">
-        <v>9.3545369504209538E-3</v>
+        <v>1.0406811731315043E-2</v>
       </c>
       <c r="F98">
-        <v>0.01</v>
+        <v>9.285051067780872E-3</v>
       </c>
       <c r="G98">
-        <v>1.0958904109589041E-2</v>
+        <v>5.5147058823529415E-3</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -3014,22 +3014,22 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>1.2068965517241379E-2</v>
+        <v>2.6109660574412533E-3</v>
       </c>
       <c r="C99">
-        <v>1.1892963330029732E-2</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D99">
-        <v>1.1387163561076604E-2</v>
+        <v>7.4468085106382982E-3</v>
       </c>
       <c r="E99">
-        <v>9.3545369504209538E-3</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F99">
-        <v>0.01</v>
+        <v>5.5710306406685237E-3</v>
       </c>
       <c r="G99">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -3037,22 +3037,22 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>1.0344827586206896E-2</v>
+        <v>1.7406440382941688E-3</v>
       </c>
       <c r="C100">
-        <v>9.9108027750247768E-3</v>
+        <v>1.0030090270812437E-2</v>
       </c>
       <c r="D100">
-        <v>1.3457556935817806E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E100">
-        <v>7.4836295603367634E-3</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F100">
-        <v>7.2727272727272727E-3</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G100">
-        <v>1.0958904109589041E-2</v>
+        <v>1.838235294117647E-3</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -3060,22 +3060,22 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>1.3793103448275862E-2</v>
+        <v>1.7406440382941688E-3</v>
       </c>
       <c r="C101">
-        <v>8.9197224975222991E-3</v>
+        <v>7.0210631895687063E-3</v>
       </c>
       <c r="D101">
-        <v>1.2422360248447204E-2</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E101">
-        <v>1.028999064546305E-2</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F101">
-        <v>7.2727272727272727E-3</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G101">
-        <v>3.6529680365296802E-3</v>
+        <v>7.3529411764705881E-3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -3083,22 +3083,22 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>1.1206896551724138E-2</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C102">
-        <v>1.5857284440039643E-2</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D102">
-        <v>6.2111801242236021E-3</v>
+        <v>1.276595744680851E-2</v>
       </c>
       <c r="E102">
-        <v>1.3096351730589336E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F102">
-        <v>1.1818181818181818E-2</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G102">
-        <v>9.1324200913242004E-3</v>
+        <v>1.0110294117647059E-2</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -3106,22 +3106,22 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>5.1724137931034482E-3</v>
+        <v>9.5735422106179285E-3</v>
       </c>
       <c r="C103">
-        <v>5.9464816650148661E-3</v>
+        <v>9.0270812437311942E-3</v>
       </c>
       <c r="D103">
-        <v>6.2111801242236021E-3</v>
+        <v>5.3191489361702126E-3</v>
       </c>
       <c r="E103">
-        <v>3.7418147801683817E-3</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F103">
-        <v>9.0909090909090905E-3</v>
+        <v>7.4280408542246983E-3</v>
       </c>
       <c r="G103">
-        <v>3.6529680365296802E-3</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3129,22 +3129,22 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>6.8965517241379309E-3</v>
+        <v>9.5735422106179285E-3</v>
       </c>
       <c r="C104">
-        <v>1.9821605550049554E-3</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D104">
-        <v>1.5527950310559006E-2</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E104">
-        <v>1.216089803554724E-2</v>
+        <v>1.3245033112582781E-2</v>
       </c>
       <c r="F104">
-        <v>3.6363636363636364E-3</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G104">
-        <v>5.4794520547945206E-3</v>
+        <v>8.2720588235294119E-3</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3152,22 +3152,22 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>1.2068965517241379E-2</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C105">
-        <v>6.9375619425173438E-3</v>
+        <v>5.0150451354062184E-3</v>
       </c>
       <c r="D105">
-        <v>1.2422360248447204E-2</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E105">
-        <v>1.5902712815715623E-2</v>
+        <v>8.5146641438032175E-3</v>
       </c>
       <c r="F105">
-        <v>1.090909090909091E-2</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G105">
-        <v>1.0045662100456621E-2</v>
+        <v>1.6544117647058824E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -3175,22 +3175,22 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>1.1206896551724138E-2</v>
+        <v>7.832898172323759E-3</v>
       </c>
       <c r="C106">
-        <v>5.9464816650148661E-3</v>
+        <v>1.3039117352056168E-2</v>
       </c>
       <c r="D106">
-        <v>6.2111801242236021E-3</v>
+        <v>1.5957446808510637E-2</v>
       </c>
       <c r="E106">
-        <v>1.1225444340505144E-2</v>
+        <v>1.7029328287606435E-2</v>
       </c>
       <c r="F106">
-        <v>7.2727272727272727E-3</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G106">
-        <v>1.2785388127853882E-2</v>
+        <v>5.5147058823529415E-3</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3198,22 +3198,22 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>7.7586206896551723E-3</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C107">
-        <v>5.9464816650148661E-3</v>
+        <v>2.0060180541624875E-3</v>
       </c>
       <c r="D107">
-        <v>9.316770186335404E-3</v>
+        <v>1.7021276595744681E-2</v>
       </c>
       <c r="E107">
-        <v>5.6127221702525721E-3</v>
+        <v>5.6764427625354778E-3</v>
       </c>
       <c r="F107">
-        <v>9.0909090909090905E-3</v>
+        <v>1.8570102135561746E-3</v>
       </c>
       <c r="G107">
-        <v>1.3698630136986301E-2</v>
+        <v>5.5147058823529415E-3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -3221,22 +3221,22 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>7.7586206896551723E-3</v>
+        <v>6.0922541340295913E-3</v>
       </c>
       <c r="C108">
-        <v>4.9554013875123884E-3</v>
+        <v>5.0150451354062184E-3</v>
       </c>
       <c r="D108">
-        <v>1.0351966873706004E-2</v>
+        <v>1.4893617021276596E-2</v>
       </c>
       <c r="E108">
-        <v>9.3545369504209538E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F108">
-        <v>5.454545454545455E-3</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G108">
-        <v>1.0045662100456621E-2</v>
+        <v>9.1911764705882356E-3</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3244,22 +3244,22 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>9.482758620689655E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C109">
-        <v>3.9643211100099107E-3</v>
+        <v>1.1033099297893681E-2</v>
       </c>
       <c r="D109">
-        <v>1.2422360248447204E-2</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E109">
-        <v>1.3096351730589336E-2</v>
+        <v>9.4607379375591296E-3</v>
       </c>
       <c r="F109">
-        <v>1.6363636363636365E-2</v>
+        <v>8.356545961002786E-3</v>
       </c>
       <c r="G109">
-        <v>1.1872146118721462E-2</v>
+        <v>1.4705882352941176E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3267,22 +3267,22 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>6.0344827586206896E-3</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C110">
-        <v>1.9821605550049554E-3</v>
+        <v>1.4042126379137413E-2</v>
       </c>
       <c r="D110">
-        <v>1.6563146997929608E-2</v>
+        <v>4.2553191489361703E-3</v>
       </c>
       <c r="E110">
-        <v>3.7418147801683817E-3</v>
+        <v>3.7842951750236518E-3</v>
       </c>
       <c r="F110">
-        <v>1.8181818181818182E-3</v>
+        <v>1.2999071494893221E-2</v>
       </c>
       <c r="G110">
-        <v>1.8264840182648401E-3</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3290,22 +3290,22 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>8.6206896551724137E-3</v>
+        <v>3.4812880765883376E-3</v>
       </c>
       <c r="C111">
-        <v>1.5857284440039643E-2</v>
+        <v>1.60481444332999E-2</v>
       </c>
       <c r="D111">
-        <v>5.175983436853002E-3</v>
+        <v>2.1276595744680851E-3</v>
       </c>
       <c r="E111">
-        <v>7.4836295603367634E-3</v>
+        <v>1.8921475875118259E-3</v>
       </c>
       <c r="F111">
-        <v>1.090909090909091E-2</v>
+        <v>3.7140204271123491E-3</v>
       </c>
       <c r="G111">
-        <v>1.0958904109589041E-2</v>
+        <v>3.6764705882352941E-3</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3313,22 +3313,22 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>8.6206896551724137E-3</v>
+        <v>1.1314186248912098E-2</v>
       </c>
       <c r="C112">
-        <v>1.9821605550049554E-3</v>
+        <v>1.5045135406218655E-2</v>
       </c>
       <c r="D112">
-        <v>1.0351966873706004E-2</v>
+        <v>6.382978723404255E-3</v>
       </c>
       <c r="E112">
-        <v>1.8709073900841909E-3</v>
+        <v>7.5685903500473037E-3</v>
       </c>
       <c r="F112">
-        <v>1.8181818181818182E-3</v>
+        <v>1.2070566388115135E-2</v>
       </c>
       <c r="G112">
-        <v>1.8264840182648401E-3</v>
+        <v>1.1948529411764705E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3336,22 +3336,62 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>8.6206896551724137E-3</v>
+        <v>1.0443864229765013E-2</v>
       </c>
       <c r="C113">
-        <v>1.5857284440039643E-2</v>
+        <v>1.2036108324974924E-2</v>
       </c>
       <c r="D113">
-        <v>2.070393374741201E-3</v>
+        <v>9.5744680851063829E-3</v>
       </c>
       <c r="E113">
-        <v>2.8063610851262861E-3</v>
+        <v>1.1352885525070956E-2</v>
       </c>
       <c r="F113">
-        <v>1.3636363636363636E-2</v>
+        <v>1.1142061281337047E-2</v>
       </c>
       <c r="G113">
-        <v>1.4611872146118721E-2</v>
+        <v>1.1029411764705883E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>7.832898172323759E-3</v>
+      </c>
+      <c r="C114">
+        <v>1.2036108324974924E-2</v>
+      </c>
+      <c r="D114">
+        <v>6.382978723404255E-3</v>
+      </c>
+      <c r="E114">
+        <v>7.5685903500473037E-3</v>
+      </c>
+      <c r="F114">
+        <v>1.1142061281337047E-2</v>
+      </c>
+      <c r="G114">
+        <v>1.1948529411764705E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>1.0443864229765013E-2</v>
+      </c>
+      <c r="C115">
+        <v>1.0030090270812437E-2</v>
+      </c>
+      <c r="D115">
+        <v>5.3191489361702126E-3</v>
+      </c>
+      <c r="E115">
+        <v>1.0406811731315043E-2</v>
+      </c>
+      <c r="F115">
+        <v>3.7140204271123491E-3</v>
+      </c>
+      <c r="G115">
+        <v>1.5625E-2</v>
       </c>
     </row>
   </sheetData>
